--- a/biology/Botanique/Gunnera_manicata/Gunnera_manicata.xlsx
+++ b/biology/Botanique/Gunnera_manicata/Gunnera_manicata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Rhubarbe géante (Gunnera manicata) ou Gunnère du Brésil, est une espèce de plantes vivaces à rhizomes traçants de la famille des Gunneraceae. Elle est originaire du Brésil[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Rhubarbe géante (Gunnera manicata) ou Gunnère du Brésil, est une espèce de plantes vivaces à rhizomes traçants de la famille des Gunneraceae. Elle est originaire du Brésil.
 Les feuilles de Gunnera manicata peuvent atteindre 2 m de diamètre et forment une couronne de plusieurs mètres d'envergure au niveau du sol. Les fleurs sont petites rouge-verdâtre en panicules ramifiées coniques. Elles donnent des fruits sphériques, rouge-vert, de 1 à 3 mm de long.
-La rhubarbe géante apprécie un sol riche et humide. Elle se propage par semis (graines à faible durée de vie) ou par bouture d'éclats de feuilles. Elle peut résister à des températures allant jusqu'à -10 °C si on la protège un peu en hiver[2].
+La rhubarbe géante apprécie un sol riche et humide. Elle se propage par semis (graines à faible durée de vie) ou par bouture d'éclats de feuilles. Elle peut résister à des températures allant jusqu'à -10 °C si on la protège un peu en hiver.
 Malgré son nom de rhubarbe géante, elle n'est pas comestible. Elle n'a d'ailleurs rien à voir, botaniquement parlant, avec la famille des Rhubarbes.
 			bourgeon
 			fleur
@@ -517,7 +529,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gunnera brasiliensis Schindl.</t>
         </is>
